--- a/Main/test/results/positionsPOS.xlsx
+++ b/Main/test/results/positionsPOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,102 +539,104 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.413932094456451</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.755389294401643</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.232175701078155</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.572819561322573</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6838991863237003</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.4174560128248932</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.6631647323347782</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.3108563505588298</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>42.78105884478818</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.6715937533971653</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.867046468278101</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2.517228020666314</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.3154197553527536</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.0675535297891166</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.4730278377352939</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.0820960213253703</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.2969362902138142</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>191.43167079285143</t>
+          <t>191.43</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.09651373473837492</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -642,102 +644,104 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.4230036837326345</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.930558456202654</t>
+          <t>44.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>364.7527662574099</t>
+          <t>364.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.190633619590072</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.895328422239649</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4364625.685833252</t>
+          <t>4364625.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.6961751757012147</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.3694376041127825</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>53.072945380744216</t>
+          <t>53.07</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6074665308952119</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.9307486209486105</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>50.59738020189203</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>23.530918597469434</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>9.717516150629695</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.5270307827932543</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.0537042081842696</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.275685441447315</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.4754824177430583</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.6756395933158009</t>
+          <t>0.68</t>
         </is>
       </c>
     </row>
@@ -745,102 +749,104 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.447640670890166</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.8043490273965572</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>420.6613765828557</t>
+          <t>420.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.065857175653998</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.6393704866105794</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.3362665722488984</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.759821649576472</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.266004799130932</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.70974812912969</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.6455744893771953</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.8479742843718243</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.4980024737255118</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>32.04784343231255</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>11.04551297215743</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.4730278377352939</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.053882618649795</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>19.273068403613063</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.4631871812343187</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.3595679438154447</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -848,102 +854,104 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>47.7763967925594</t>
+          <t>47.78</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.5825179361223403</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.732930988097084</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>55.63007944050513</t>
+          <t>55.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.645989179035097</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.4066358837143915</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>43.36354319041454</t>
+          <t>43.36</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.3720515370854174</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.7716618901060428</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.709660749607409</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13.344962120622528</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.567393555280911</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.330290828017232</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.9863610922105798</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.473863112607839</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.053882618649795</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.2612525357806401</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.5296395135092324</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.5171212640470648</t>
+          <t>0.52</t>
         </is>
       </c>
     </row>
@@ -951,102 +959,104 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.433297927762654</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.927626648919444</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.654353691658538</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.068316372843706</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.9752133634827858</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.890701470759915</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.8635527014414097</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.172919666958973</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>18.701023238302053</t>
+          <t>18.7</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.147038713063507</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.9085069508644347</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>27.405709467674306</t>
+          <t>27.41</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>59.50672666742044</t>
+          <t>59.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.0675535297891166</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24.195846693588468</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>24.422307879127406</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>157922.72611621226</t>
+          <t>157922.73</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>23.024045861426647</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>4.054881065188917</t>
+          <t>4.05</t>
         </is>
       </c>
     </row>
@@ -1054,102 +1064,104 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.541322150646653</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1314670.22252036</t>
+          <t>1314670.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.628600892362241</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50.46134977682698</t>
+          <t>50.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.8818641098294253</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.519290175250363</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.759821649576472</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.220061752896796</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.8196858220077814</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.9912382205227834</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.9307486209486105</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.5326143504160297</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.2795772778333636</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.9670160112361988</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.4730278377352939</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.081993852314092</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.3018989535295606</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.5078751798936152</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.2602491466606324</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -1157,102 +1169,104 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.413932094456451</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.8043490273965572</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>913449.0157364056</t>
+          <t>913449.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45.51808950498412</t>
+          <t>45.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.763771360960108</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.4174560128248932</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.7430988318794043</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.3108563505588298</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.6432700681855377</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.709660749607409</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15.525764568154901</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.4635656253658453</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.307532213482459</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.0354041919333128</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.473863112607839</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2.081993852314092</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.258704971830376</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1.4991286752844628</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.1570076800508305</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
@@ -1260,102 +1274,104 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.423160873708623</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.6932528666903686</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.679501516228046</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40.361459310757084</t>
+          <t>40.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>48.31922045914857</t>
+          <t>48.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>99404822.18561275</t>
+          <t>99404822.19</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.6961751757012147</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.7846589390751992</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23.44716317114636</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.6074665308952119</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.9307486209486105</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>42.6073905157658</t>
+          <t>42.61</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.255706269522561</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.948043075945511</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12.907459167057661</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>39.64915595082898</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>26.049630571298866</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.4631871812343187</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.5791095636937591</t>
+          <t>0.58</t>
         </is>
       </c>
     </row>
@@ -1363,102 +1379,104 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>331.18822734944763</t>
+          <t>331.19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.865938421438602</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.602873029011967</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>40.361459310757084</t>
+          <t>40.36</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.645989179035097</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.3539423524941552</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>47.312306128953935</t>
+          <t>47.31</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.3108563505588298</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.5411046586716797</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.5933338066083345</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.9013140336380608</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.4980024737255118</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>36.03981030939282</t>
+          <t>36.04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>9.225679818516518</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.473863112607839</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.081993852314092</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>24.932179094694455</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.4991286752844628</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.43560134301773656</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -1466,102 +1484,104 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1388.2498755394072</t>
+          <t>1388.25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.199304901620544</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.576930859806535</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63.70418289439566</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.276403423122536</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.4174560128248932</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.793760850879055</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.2078417949138007</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.7716618901060428</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.6074665308952119</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.8872489745470558</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>33.181234777675655</t>
+          <t>33.18</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.221397898596275</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.9805800573280574</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.5167006315674256</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2.053882618649795</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.258704971830376</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.4660249745424518</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.13246609886533367</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -1601,72 +1621,177 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Pass</t>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.73</t>
         </is>
       </c>
     </row>
